--- a/devops/make-archlinux-box/calculs.xlsx
+++ b/devops/make-archlinux-box/calculs.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="6720"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="14112" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="201611" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>1K</t>
   </si>
@@ -79,10 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,20 +391,184 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="2">
         <v>1024</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <f>C1/512</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <f>C1*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E3" si="0">C2/512</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <f>C2*1024</f>
+        <v>1073741824</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B6" s="2">
+        <f>A6+E6-1</f>
+        <v>206847</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C6*$E$2</f>
+        <v>204800</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>B6+1</f>
+        <v>206848</v>
+      </c>
+      <c r="B7" s="2">
+        <f>A7+E7</f>
+        <v>2304000</v>
+      </c>
+      <c r="C7">
+        <v>1024</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <f>C7*$E$2</f>
+        <v>2097152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>B7+1</f>
+        <v>2304001</v>
+      </c>
+      <c r="B8" s="2">
+        <f>A8+E8</f>
+        <v>52635649</v>
+      </c>
+      <c r="C8">
+        <f>24*1024</f>
+        <v>24576</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <f>C8*$E$2</f>
+        <v>50331648</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>B8+1</f>
+        <v>52635650</v>
+      </c>
+      <c r="B9" s="2">
+        <f>A9+E9</f>
+        <v>63121410</v>
+      </c>
+      <c r="C9">
+        <f>5*1024</f>
+        <v>5120</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <f>C9*$E$2</f>
+        <v>10485760</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f>SUM(C6:C9)</f>
+        <v>30820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>1024</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
